--- a/admin/data/excl/147inc.xlsx
+++ b/admin/data/excl/147inc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monstern Technology\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59ECDCF-9F54-4A3A-B3E7-0D451B7BAAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD91BC-6FDE-403A-90CF-285653D56584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{C66AA71B-C5F4-4996-A955-06D06523EF49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C66AA71B-C5F4-4996-A955-06D06523EF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Item number</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t xml:space="preserve">Client </t>
+  </si>
+  <si>
+    <t>024918</t>
+  </si>
+  <si>
+    <t>024913</t>
+  </si>
+  <si>
+    <t>052090</t>
+  </si>
+  <si>
+    <t>052177</t>
+  </si>
+  <si>
+    <t>0052178</t>
+  </si>
+  <si>
+    <t>052154</t>
+  </si>
+  <si>
+    <t>0011148</t>
+  </si>
+  <si>
+    <t>024766</t>
+  </si>
+  <si>
+    <t>0052131</t>
+  </si>
+  <si>
+    <t>006112</t>
+  </si>
+  <si>
+    <t>024364</t>
+  </si>
+  <si>
+    <t>024366</t>
+  </si>
+  <si>
+    <t>024365</t>
+  </si>
+  <si>
+    <t>024444</t>
+  </si>
+  <si>
+    <t>024424</t>
   </si>
 </sst>
 </file>
@@ -92,9 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +458,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E024910-43A5-44A0-AF1E-FC0821492FED}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F1" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,11 +469,11 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -436,170 +484,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>591037</v>
       </c>
-      <c r="B2">
-        <v>24918</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>591037</v>
       </c>
-      <c r="B3">
-        <v>24913</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>591037</v>
       </c>
-      <c r="B4">
-        <v>52090</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>591037</v>
       </c>
-      <c r="B5">
-        <v>52177</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>591037</v>
       </c>
-      <c r="B6">
-        <v>52178</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>591037</v>
       </c>
-      <c r="B7">
-        <v>52154</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>591037</v>
       </c>
-      <c r="B8">
-        <v>11148</v>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>591037</v>
       </c>
-      <c r="B9">
-        <v>24766</v>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>591037</v>
       </c>
-      <c r="B10">
-        <v>52131</v>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>591037</v>
       </c>
-      <c r="B11">
-        <v>6112</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>591037</v>
       </c>
-      <c r="B12">
-        <v>24364</v>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>591037</v>
       </c>
-      <c r="B13">
-        <v>24366</v>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>591037</v>
       </c>
-      <c r="B14">
-        <v>24365</v>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>591037</v>
       </c>
-      <c r="B15">
-        <v>24444</v>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>591037</v>
       </c>
-      <c r="B16">
-        <v>24424</v>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:C38" xr:uid="{D2DE30E7-FE1F-4027-B99A-EA637E1F0EC2}"/>
